--- a/tasmota/display/gpio.xlsx
+++ b/tasmota/display/gpio.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_distrib\Git\SLS\tasmota\display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582A225D-A2F4-42A4-ACA0-3436C35251AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF11564-6037-45E3-A493-469A51B4B155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACCD7E34-BF57-4DB4-A5AB-CFB35F05B3A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ACCD7E34-BF57-4DB4-A5AB-CFB35F05B3A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист3" sheetId="1" r:id="rId1"/>
+    <sheet name="gpio" sheetId="1" r:id="rId1"/>
+    <sheet name="disp.ini" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>none</t>
   </si>
@@ -217,6 +218,210 @@
   </si>
   <si>
     <t>GPIO0</t>
+  </si>
+  <si>
+    <t>:H</t>
+  </si>
+  <si>
+    <t>ST7796</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Header line describes the main features of the display</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>x size in pixels</t>
+  </si>
+  <si>
+    <t>y size in pixels</t>
+  </si>
+  <si>
+    <t>bits per pixel</t>
+  </si>
+  <si>
+    <t>hardware interface used either I2C or SPI</t>
+  </si>
+  <si>
+    <t>hardware SPI</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SPI Speed</t>
+  </si>
+  <si>
+    <t>All signals must be given. Unused pins may be set to -1. If you specify a * char the pin number is derived from the Tasmota GPIO GUI.</t>
+  </si>
+  <si>
+    <t>:S</t>
+  </si>
+  <si>
+    <t>(optional) Splash setup, also defines initial colors. If omitted screen is not cleared initially</t>
+  </si>
+  <si>
+    <t>Font number, if -1 splash screen is suppressed</t>
+  </si>
+  <si>
+    <t>Font size</t>
+  </si>
+  <si>
+    <t>FG color (as index color)</t>
+  </si>
+  <si>
+    <t>BG color (as index color)</t>
+  </si>
+  <si>
+    <t>x position of text</t>
+  </si>
+  <si>
+    <t>y position of text</t>
+  </si>
+  <si>
+    <t>:o</t>
+  </si>
+  <si>
+    <t>:O</t>
+  </si>
+  <si>
+    <t>:A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>:R</t>
+  </si>
+  <si>
+    <t>:0</t>
+  </si>
+  <si>
+    <t>:1</t>
+  </si>
+  <si>
+    <t>:2</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>:3</t>
+  </si>
+  <si>
+    <t>:r</t>
+  </si>
+  <si>
+    <t>:i</t>
+  </si>
+  <si>
+    <t>:TI1</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>controller OPCODE to switch display off</t>
+  </si>
+  <si>
+    <t>controller OPCODE to switch display on</t>
+  </si>
+  <si>
+    <t>Rotation, Startline</t>
+  </si>
+  <si>
+    <t>rotation opcode</t>
+  </si>
+  <si>
+    <t>startline opcode (optional)</t>
+  </si>
+  <si>
+    <t>Register values for all 4 rotations (color display only)</t>
+  </si>
+  <si>
+    <t>rotation code</t>
+  </si>
+  <si>
+    <t>x offset</t>
+  </si>
+  <si>
+    <t>y offset</t>
+  </si>
+  <si>
+    <t>rotation pseudo opcode for touch panel, in case of RGB panel use only these entries the appropriate coordinate convervsions are defined via pseudo opcodes:</t>
+  </si>
+  <si>
+    <t>OPCODES to set address window (all but epaper displays)</t>
+  </si>
+  <si>
+    <t>set column opcode</t>
+  </si>
+  <si>
+    <t>set row opcode</t>
+  </si>
+  <si>
+    <t>start write opcode</t>
+  </si>
+  <si>
+    <t>pixel size (optional)</t>
+  </si>
+  <si>
+    <t>invert display opcodes</t>
+  </si>
+  <si>
+    <t>inversion off</t>
+  </si>
+  <si>
+    <t>inversion on</t>
+  </si>
+  <si>
+    <t>Defines a touch panel an I2C bus nr x (1 or 2)</t>
+  </si>
+  <si>
+    <t>is device address</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines optional display rotation </t>
+  </si>
+  <si>
+    <t>X = 0..3</t>
   </si>
 </sst>
 </file>
@@ -570,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491A2B63-9953-4147-B45C-38EE0A1C786E}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1009,4 +1214,405 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97519718-A4DA-47B7-A1F8-AEE600B9F3B4}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="D2">
+        <v>320</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>